--- a/biology/Botanique/Lotus_(plante)/Lotus_(plante).xlsx
+++ b/biology/Botanique/Lotus_(plante)/Lotus_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, le lotus désigne sans précision en français des plantes aquatiques du genre Nelumbo comme le lotus sacré (Nelumbo nucifera Gaertn.) présent dans l'Ancien Monde ou le lotus jaune (Nelumbo lutea) en Amérique. Mais il existe deux espèces de nymphéas utilisant ce même vocable dans leur phytonyme : le lotus bleu et lotus d'Égypte.
 </t>
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nelumbonacaea
-Lotus sacré, lotus indien, fève d'Égypte, lis du Nil ; Lotus sacra, Faba ægyptiaca ; Nelumbo nucifera Gaertn. (syn. Nymphæa Nelumbo L.) ; Nélumbonacées.
-Lotus d'Amérique, lotus jaune ; Nelumbo lutea Willd. ; Nélumbonacées.
-Nympheacaea
-Lotus d'Égypte ou Lotus tigré ; Lotus, sive Colocasium ; Nymphaea lotus L., Nymphaéacées
-Lotus bleu ; Lotus…. (cyaneus) ; Nymphaea caerulea Savigny ; Nymphaéacées
-Note
-Le genre Lotus qui rassemble les lotiers, appartient à la famille des Fabacées[1] et comprend des plantes fourragères communes dans les prairies. Il ne faut donc pas confondre les deux termes.
+          <t>Nelumbonacaea</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lotus sacré, lotus indien, fève d'Égypte, lis du Nil ; Lotus sacra, Faba ægyptiaca ; Nelumbo nucifera Gaertn. (syn. Nymphæa Nelumbo L.) ; Nélumbonacées.
+Lotus d'Amérique, lotus jaune ; Nelumbo lutea Willd. ; Nélumbonacées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lotus_(plante)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotus_(plante)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les différents lotus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nympheacaea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lotus d'Égypte ou Lotus tigré ; Lotus, sive Colocasium ; Nymphaea lotus L., Nymphaéacées
+Lotus bleu ; Lotus…. (cyaneus) ; Nymphaea caerulea Savigny ; Nymphaéacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lotus_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotus_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les différents lotus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Lotus qui rassemble les lotiers, appartient à la famille des Fabacées et comprend des plantes fourragères communes dans les prairies. Il ne faut donc pas confondre les deux termes.
 </t>
         </is>
       </c>
